--- a/medicine/Psychotrope/Paceña/Paceña.xlsx
+++ b/medicine/Psychotrope/Paceña/Paceña.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pace%C3%B1a</t>
+          <t>Paceña</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Paceña est une bière bolivienne brassée par Cervecería Boliviana Nacional (CBN).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pace%C3%B1a</t>
+          <t>Paceña</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Fabrication</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Deux types de Paceña sont fabriquées : 
 la Paceña Pilsener, brassée à La Paz. Elle contient 10,8 % de moût et a une saveur amère. Sa consistance est similaire à celle de la lager. Elle est fabriquée à plus de 3 600 m d'altitude avec l'eau de la Cordillère des Andes. Du fait de l'altitude, la température d'ébullition de l'eau est de 87 °C, la cuisson se fait donc sous pression.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pace%C3%B1a</t>
+          <t>Paceña</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,12 +557,49 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La production annuelle de la Paceña Pilsener est de 850 000 hl, celle de la Paceña Pilsener Tropical Extra est de 845 000 hl. La plus grande partie de la production est destinée au marché national et sa distribution se fait en bouteilles jetables et en canettes de contenance variable.
-Exportation
-Les exportations sont principalement vers le Chili avec 13 000 hl par an, et une partie de la production est envoyée vers les États-Unis, vers l'Espagne, vers le Royaume-Uni, vers le Japon, vers l'Australie et vers la Suisse.
-Selon une étude réalisée par le Servicio Nacional del Consumidor chilien, la Paceña est la 4e marque de bière préférée des chiliens parmi 17 marques[1] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Paceña</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pace%C3%B1a</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Exportation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les exportations sont principalement vers le Chili avec 13 000 hl par an, et une partie de la production est envoyée vers les États-Unis, vers l'Espagne, vers le Royaume-Uni, vers le Japon, vers l'Australie et vers la Suisse.
+Selon une étude réalisée par le Servicio Nacional del Consumidor chilien, la Paceña est la 4e marque de bière préférée des chiliens parmi 17 marques :
 </t>
         </is>
       </c>
